--- a/txsb_top_timing_bdlmin_tran_channel_a_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmin_tran_channel_a_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="143">
   <si>
     <t>Process</t>
   </si>
@@ -403,22 +403,22 @@
     <t>1.00000e00</t>
   </si>
   <si>
+    <t>tsmc2ff (6)</t>
+  </si>
+  <si>
+    <t>0.00000e00</t>
+  </si>
+  <si>
+    <t>tsmc2ff (7)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (8)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>0.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (7)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (8)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -2301,187 +2301,187 @@
       <c r="S7" t="s">
         <v>128</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS7" s="4" t="s">
-        <v>129</v>
+      <c r="T7">
+        <v>129.808</v>
+      </c>
+      <c r="U7">
+        <v>129.951</v>
+      </c>
+      <c r="V7">
+        <v>129.879</v>
+      </c>
+      <c r="W7" s="2">
+        <v>66.6739</v>
+      </c>
+      <c r="X7" s="3">
+        <v>23.3843</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>22.6187</v>
+      </c>
+      <c r="Z7">
+        <v>19.7569</v>
+      </c>
+      <c r="AA7">
+        <v>20.4256</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>3053.85</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>3054.38</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>3054.12</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.13485</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>15.8773</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>15.5549</v>
+      </c>
+      <c r="AH7">
+        <v>38.9487</v>
+      </c>
+      <c r="AI7">
+        <v>39.756</v>
+      </c>
+      <c r="AJ7">
+        <v>53.8548</v>
+      </c>
+      <c r="AK7">
+        <v>54.383</v>
+      </c>
+      <c r="AL7">
+        <v>54.1189</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>25.0135</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>15.8773</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>15.5549</v>
+      </c>
+      <c r="AP7">
+        <v>38.9487</v>
+      </c>
+      <c r="AQ7">
+        <v>39.756</v>
+      </c>
+      <c r="AR7">
+        <v>109.08</v>
+      </c>
+      <c r="AS7">
+        <v>108.95</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>66.66549999999999</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>54.1935</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>53.4857</v>
+      </c>
+      <c r="AW7">
+        <v>8.52501</v>
+      </c>
+      <c r="AX7">
+        <v>8.63782</v>
+      </c>
+      <c r="AY7">
+        <v>30.1841</v>
+      </c>
+      <c r="AZ7">
+        <v>30.6469</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>66.6814</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>3.74881</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>3.58861</v>
+      </c>
+      <c r="BD7">
+        <v>123.719</v>
+      </c>
+      <c r="BE7">
+        <v>129.242</v>
+      </c>
+      <c r="BF7">
+        <v>42.8251</v>
+      </c>
+      <c r="BG7">
+        <v>41.3228</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>66.6134</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>7.271920000000001</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>6.33408</v>
+      </c>
+      <c r="BK7">
+        <v>63.7796</v>
+      </c>
+      <c r="BL7">
+        <v>73.223</v>
+      </c>
+      <c r="BM7">
+        <v>57.7192</v>
+      </c>
+      <c r="BN7">
+        <v>58.2403</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>66.679</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>4.50512</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>2.02474</v>
+      </c>
+      <c r="BR7">
+        <v>102.55</v>
+      </c>
+      <c r="BS7">
+        <v>228.177</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>118</v>
@@ -2532,192 +2532,192 @@
         <v>127</v>
       </c>
       <c r="R8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S8" t="s">
-        <v>131</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS8" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="T8">
+        <v>120.745</v>
+      </c>
+      <c r="U8">
+        <v>122.084</v>
+      </c>
+      <c r="V8">
+        <v>121.414</v>
+      </c>
+      <c r="W8" s="2">
+        <v>66.7244</v>
+      </c>
+      <c r="X8" s="3">
+        <v>20.3203</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>19.2525</v>
+      </c>
+      <c r="Z8">
+        <v>22.7358</v>
+      </c>
+      <c r="AA8">
+        <v>23.9969</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>3049.02</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>3049.49</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>3049.26</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0.143611</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>14.1321</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>13.4214</v>
+      </c>
+      <c r="AH8">
+        <v>43.7585</v>
+      </c>
+      <c r="AI8">
+        <v>46.0756</v>
+      </c>
+      <c r="AJ8">
+        <v>49.0237</v>
+      </c>
+      <c r="AK8">
+        <v>49.4948</v>
+      </c>
+      <c r="AL8">
+        <v>49.2593</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>25.0117</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>14.1321</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>13.4214</v>
+      </c>
+      <c r="AP8">
+        <v>43.7585</v>
+      </c>
+      <c r="AQ8">
+        <v>46.0756</v>
+      </c>
+      <c r="AR8">
+        <v>99.2927</v>
+      </c>
+      <c r="AS8">
+        <v>100.336</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>66.70529999999999</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>51.3256</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>50.3576</v>
+      </c>
+      <c r="AW8">
+        <v>9.00136</v>
+      </c>
+      <c r="AX8">
+        <v>9.174379999999999</v>
+      </c>
+      <c r="AY8">
+        <v>26.8668</v>
+      </c>
+      <c r="AZ8">
+        <v>27.349</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>66.6832</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>2.72664</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>2.55628</v>
+      </c>
+      <c r="BD8">
+        <v>170.1</v>
+      </c>
+      <c r="BE8">
+        <v>181.436</v>
+      </c>
+      <c r="BF8">
+        <v>38.5631</v>
+      </c>
+      <c r="BG8">
+        <v>37.2685</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>66.6212</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>6.25482</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>5.45565</v>
+      </c>
+      <c r="BK8">
+        <v>74.15089999999999</v>
+      </c>
+      <c r="BL8">
+        <v>85.0127</v>
+      </c>
+      <c r="BM8">
+        <v>53.1426</v>
+      </c>
+      <c r="BN8">
+        <v>54.9078</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>66.7188</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>4.16801</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>1.83899</v>
+      </c>
+      <c r="BR8">
+        <v>110.844</v>
+      </c>
+      <c r="BS8">
+        <v>251.225</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BU8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BV8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -2773,187 +2773,187 @@
       <c r="S9" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS9" s="4" t="s">
-        <v>129</v>
+      <c r="T9">
+        <v>137.594</v>
+      </c>
+      <c r="U9">
+        <v>138.264</v>
+      </c>
+      <c r="V9">
+        <v>137.929</v>
+      </c>
+      <c r="W9" s="2">
+        <v>66.69159999999999</v>
+      </c>
+      <c r="X9" s="3">
+        <v>24.7113</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>23.9518</v>
+      </c>
+      <c r="Z9">
+        <v>16.7535</v>
+      </c>
+      <c r="AA9">
+        <v>17.2847</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>3057.17</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>3057.57</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>3057.37</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.150078</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>17.036</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>16.7138</v>
+      </c>
+      <c r="AH9">
+        <v>32.4019</v>
+      </c>
+      <c r="AI9">
+        <v>33.0265</v>
+      </c>
+      <c r="AJ9">
+        <v>57.1673</v>
+      </c>
+      <c r="AK9">
+        <v>57.5663</v>
+      </c>
+      <c r="AL9">
+        <v>57.3668</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>25.0101</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>17.036</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>16.7138</v>
+      </c>
+      <c r="AP9">
+        <v>32.4019</v>
+      </c>
+      <c r="AQ9">
+        <v>33.0265</v>
+      </c>
+      <c r="AR9">
+        <v>117.382</v>
+      </c>
+      <c r="AS9">
+        <v>117.722</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>66.68129999999999</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>55.3368</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>54.6431</v>
+      </c>
+      <c r="AW9">
+        <v>7.48146</v>
+      </c>
+      <c r="AX9">
+        <v>7.57644</v>
+      </c>
+      <c r="AY9">
+        <v>31.264</v>
+      </c>
+      <c r="AZ9">
+        <v>31.6911</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>66.6803</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>3.74703</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>3.60465</v>
+      </c>
+      <c r="BD9">
+        <v>110.487</v>
+      </c>
+      <c r="BE9">
+        <v>114.852</v>
+      </c>
+      <c r="BF9">
+        <v>44.9776</v>
+      </c>
+      <c r="BG9">
+        <v>43.2905</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>66.60680000000001</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>7.69797</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>6.78131</v>
+      </c>
+      <c r="BK9">
+        <v>53.7804</v>
+      </c>
+      <c r="BL9">
+        <v>61.0502</v>
+      </c>
+      <c r="BM9">
+        <v>61.6585</v>
+      </c>
+      <c r="BN9">
+        <v>62.8123</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>66.69880000000001</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>5.04812</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>2.24789</v>
+      </c>
+      <c r="BR9">
+        <v>82.0107</v>
+      </c>
+      <c r="BS9">
+        <v>184.173</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BU9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BV9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BW9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BY9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BZ9" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
@@ -3009,182 +3009,182 @@
       <c r="S10" t="s">
         <v>128</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS10" s="4" t="s">
-        <v>129</v>
+      <c r="T10">
+        <v>130.785</v>
+      </c>
+      <c r="U10">
+        <v>132.772</v>
+      </c>
+      <c r="V10">
+        <v>131.779</v>
+      </c>
+      <c r="W10" s="2">
+        <v>66.7394</v>
+      </c>
+      <c r="X10" s="3">
+        <v>21.6822</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>20.432</v>
+      </c>
+      <c r="Z10">
+        <v>19.094</v>
+      </c>
+      <c r="AA10">
+        <v>20.2623</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>3053.37</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>3053.67</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>3053.52</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0.168215</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>15.3789</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>14.5825</v>
+      </c>
+      <c r="AH10">
+        <v>35.8933</v>
+      </c>
+      <c r="AI10">
+        <v>37.8537</v>
+      </c>
+      <c r="AJ10">
+        <v>53.3703</v>
+      </c>
+      <c r="AK10">
+        <v>53.6658</v>
+      </c>
+      <c r="AL10">
+        <v>53.5181</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>25.0072</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>15.3789</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>14.5825</v>
+      </c>
+      <c r="AP10">
+        <v>35.8933</v>
+      </c>
+      <c r="AQ10">
+        <v>37.8537</v>
+      </c>
+      <c r="AR10">
+        <v>109.747</v>
+      </c>
+      <c r="AS10">
+        <v>111.329</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>66.7234</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>52.4724</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>51.4057</v>
+      </c>
+      <c r="AW10">
+        <v>7.88987</v>
+      </c>
+      <c r="AX10">
+        <v>8.05359</v>
+      </c>
+      <c r="AY10">
+        <v>28.4739</v>
+      </c>
+      <c r="AZ10">
+        <v>28.9395</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>66.68259999999999</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>2.79523</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>2.64089</v>
+      </c>
+      <c r="BD10">
+        <v>148.109</v>
+      </c>
+      <c r="BE10">
+        <v>156.765</v>
+      </c>
+      <c r="BF10">
+        <v>41.5228</v>
+      </c>
+      <c r="BG10">
+        <v>39.969</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>66.6121</v>
+      </c>
+      <c r="BI10" s="3">
+        <v>6.68981</v>
+      </c>
+      <c r="BJ10" s="3">
+        <v>5.87802</v>
+      </c>
+      <c r="BK10">
+        <v>61.8852</v>
+      </c>
+      <c r="BL10">
+        <v>70.4319</v>
+      </c>
+      <c r="BM10">
+        <v>58.60299999999999</v>
+      </c>
+      <c r="BN10">
+        <v>61.2104</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>66.74509999999999</v>
+      </c>
+      <c r="BP10" s="3">
+        <v>4.79746</v>
+      </c>
+      <c r="BQ10" s="3">
+        <v>2.08689</v>
+      </c>
+      <c r="BR10">
+        <v>86.29559999999999</v>
+      </c>
+      <c r="BS10">
+        <v>198.381</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BU10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BV10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BW10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BY10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="BZ10" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:78" s="1" customFormat="1">
@@ -3425,25 +3425,25 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T12" s="1">
-        <v>147.064</v>
+        <v>120.745</v>
       </c>
       <c r="U12" s="1">
-        <v>148.3</v>
+        <v>122.084</v>
       </c>
       <c r="V12" s="1">
-        <v>147.682</v>
+        <v>121.414</v>
       </c>
       <c r="W12" s="2">
-        <v>66.6823</v>
+        <v>66.6739</v>
       </c>
       <c r="X12" s="3">
-        <v>25.8145</v>
+        <v>20.3203</v>
       </c>
       <c r="Y12" s="3">
-        <v>24.2151</v>
+        <v>19.2525</v>
       </c>
       <c r="Z12" s="1">
         <v>10.3584</v>
@@ -3452,22 +3452,22 @@
         <v>11.7931</v>
       </c>
       <c r="AB12" s="2">
-        <v>3061.46</v>
+        <v>3049.02</v>
       </c>
       <c r="AC12" s="2">
-        <v>3061.66</v>
+        <v>3049.49</v>
       </c>
       <c r="AD12" s="2">
-        <v>3061.56</v>
+        <v>3049.26</v>
       </c>
       <c r="AE12" s="3">
-        <v>0.197333</v>
+        <v>0.13485</v>
       </c>
       <c r="AF12" s="3">
-        <v>18.1506</v>
+        <v>14.1321</v>
       </c>
       <c r="AG12" s="3">
-        <v>17.2812</v>
+        <v>13.4214</v>
       </c>
       <c r="AH12" s="1">
         <v>21.5013</v>
@@ -3476,22 +3476,22 @@
         <v>22.154</v>
       </c>
       <c r="AJ12" s="1">
-        <v>61.4633</v>
+        <v>49.0237</v>
       </c>
       <c r="AK12" s="1">
-        <v>61.66160000000001</v>
+        <v>49.4948</v>
       </c>
       <c r="AL12" s="1">
-        <v>61.5624</v>
+        <v>49.2593</v>
       </c>
       <c r="AM12" s="3">
         <v>24.9817</v>
       </c>
       <c r="AN12" s="3">
-        <v>18.1506</v>
+        <v>14.1321</v>
       </c>
       <c r="AO12" s="3">
-        <v>17.2812</v>
+        <v>13.4214</v>
       </c>
       <c r="AP12" s="1">
         <v>21.5013</v>
@@ -3500,19 +3500,19 @@
         <v>22.154</v>
       </c>
       <c r="AR12" s="1">
-        <v>127.406</v>
+        <v>99.2927</v>
       </c>
       <c r="AS12" s="1">
-        <v>127.892</v>
+        <v>100.336</v>
       </c>
       <c r="AT12" s="2">
         <v>66.63679999999999</v>
       </c>
       <c r="AU12" s="2">
-        <v>56.2563</v>
+        <v>51.3256</v>
       </c>
       <c r="AV12" s="2">
-        <v>54.8384</v>
+        <v>50.3576</v>
       </c>
       <c r="AW12" s="1">
         <v>6.33997</v>
@@ -3521,19 +3521,19 @@
         <v>6.54198</v>
       </c>
       <c r="AY12" s="1">
-        <v>32.3224</v>
+        <v>26.8668</v>
       </c>
       <c r="AZ12" s="1">
-        <v>32.7492</v>
+        <v>27.349</v>
       </c>
       <c r="BA12" s="2">
         <v>66.6793</v>
       </c>
       <c r="BB12" s="3">
-        <v>3.17357</v>
+        <v>2.72664</v>
       </c>
       <c r="BC12" s="3">
-        <v>3.02093</v>
+        <v>2.55628</v>
       </c>
       <c r="BD12" s="1">
         <v>103.981</v>
@@ -3542,19 +3542,19 @@
         <v>107.521</v>
       </c>
       <c r="BF12" s="1">
-        <v>47.693</v>
+        <v>38.5631</v>
       </c>
       <c r="BG12" s="1">
-        <v>45.5887</v>
+        <v>37.2685</v>
       </c>
       <c r="BH12" s="2">
         <v>66.51600000000001</v>
       </c>
       <c r="BI12" s="3">
-        <v>7.84582</v>
+        <v>6.25482</v>
       </c>
       <c r="BJ12" s="3">
-        <v>7.01585</v>
+        <v>5.45565</v>
       </c>
       <c r="BK12" s="1">
         <v>37.5942</v>
@@ -3563,19 +3563,19 @@
         <v>39.8692</v>
       </c>
       <c r="BM12" s="1">
-        <v>66.05930000000001</v>
+        <v>53.1426</v>
       </c>
       <c r="BN12" s="1">
-        <v>68.3738</v>
+        <v>54.9078</v>
       </c>
       <c r="BO12" s="2">
-        <v>66.7281</v>
+        <v>66.679</v>
       </c>
       <c r="BP12" s="3">
-        <v>5.12296</v>
+        <v>4.16801</v>
       </c>
       <c r="BQ12" s="3">
-        <v>2.26902</v>
+        <v>1.83899</v>
       </c>
       <c r="BR12" s="1">
         <v>57.798</v>
@@ -3584,25 +3584,25 @@
         <v>133.204</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
@@ -3628,10 +3628,10 @@
         <v>35.1052</v>
       </c>
       <c r="Z13" s="1">
-        <v>17.4321</v>
+        <v>22.7358</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.5835</v>
+        <v>23.9969</v>
       </c>
       <c r="AB13" s="2">
         <v>3084.48</v>
@@ -3652,10 +3652,10 @@
         <v>24.9165</v>
       </c>
       <c r="AH13" s="1">
-        <v>33.0568</v>
+        <v>43.7585</v>
       </c>
       <c r="AI13" s="1">
-        <v>34.7198</v>
+        <v>46.0756</v>
       </c>
       <c r="AJ13" s="1">
         <v>84.48</v>
@@ -3667,7 +3667,7 @@
         <v>84.12869999999999</v>
       </c>
       <c r="AM13" s="3">
-        <v>25.0047</v>
+        <v>25.0135</v>
       </c>
       <c r="AN13" s="3">
         <v>25.6729</v>
@@ -3676,10 +3676,10 @@
         <v>24.9165</v>
       </c>
       <c r="AP13" s="1">
-        <v>33.0568</v>
+        <v>43.7585</v>
       </c>
       <c r="AQ13" s="1">
-        <v>34.7198</v>
+        <v>46.0756</v>
       </c>
       <c r="AR13" s="1">
         <v>186.812</v>
@@ -3688,7 +3688,7 @@
         <v>186.68</v>
       </c>
       <c r="AT13" s="2">
-        <v>66.6888</v>
+        <v>66.7234</v>
       </c>
       <c r="AU13" s="2">
         <v>65.3</v>
@@ -3697,10 +3697,10 @@
         <v>63.2836</v>
       </c>
       <c r="AW13" s="1">
-        <v>7.99911</v>
+        <v>9.00136</v>
       </c>
       <c r="AX13" s="1">
-        <v>8.20593</v>
+        <v>9.174379999999999</v>
       </c>
       <c r="AY13" s="1">
         <v>40.30390000000001</v>
@@ -3709,7 +3709,7 @@
         <v>40.7133</v>
       </c>
       <c r="BA13" s="2">
-        <v>66.6812</v>
+        <v>66.6832</v>
       </c>
       <c r="BB13" s="3">
         <v>3.98149</v>
@@ -3718,10 +3718,10 @@
         <v>3.85039</v>
       </c>
       <c r="BD13" s="1">
-        <v>142.823</v>
+        <v>170.1</v>
       </c>
       <c r="BE13" s="1">
-        <v>150.068</v>
+        <v>181.436</v>
       </c>
       <c r="BF13" s="1">
         <v>64.3206</v>
@@ -3730,7 +3730,7 @@
         <v>60.054</v>
       </c>
       <c r="BH13" s="2">
-        <v>66.59269999999999</v>
+        <v>66.6212</v>
       </c>
       <c r="BI13" s="3">
         <v>11.0123</v>
@@ -3739,10 +3739,10 @@
         <v>10.3839</v>
       </c>
       <c r="BK13" s="1">
-        <v>57.3554</v>
+        <v>74.15089999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>64.1405</v>
+        <v>85.0127</v>
       </c>
       <c r="BM13" s="1">
         <v>93.1165</v>
@@ -3760,31 +3760,31 @@
         <v>3.10802</v>
       </c>
       <c r="BR13" s="1">
-        <v>87.8398</v>
+        <v>110.844</v>
       </c>
       <c r="BS13" s="1">
-        <v>198.324</v>
+        <v>251.225</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
@@ -4076,181 +4076,181 @@
         <v>140</v>
       </c>
       <c r="T18" s="1">
-        <v>178.1032</v>
+        <v>156.6053333333333</v>
       </c>
       <c r="U18" s="1">
-        <v>179.2998</v>
+        <v>157.73</v>
       </c>
       <c r="V18" s="1">
-        <v>178.7016</v>
+        <v>157.1676666666667</v>
       </c>
       <c r="W18" s="1">
-        <v>66.71216</v>
+        <v>66.7100111111111</v>
       </c>
       <c r="X18" s="1">
-        <v>32.58212</v>
+        <v>28.11207777777778</v>
       </c>
       <c r="Y18" s="1">
-        <v>29.37324</v>
+        <v>25.90235555555555</v>
       </c>
       <c r="Z18" s="1">
-        <v>13.8799</v>
+        <v>16.41552222222222</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.29064</v>
+        <v>17.60252222222222</v>
       </c>
       <c r="AB18" s="1">
-        <v>3074.914</v>
+        <v>3065.331111111111</v>
       </c>
       <c r="AC18" s="1">
-        <v>3074.738</v>
+        <v>3065.422222222222</v>
       </c>
       <c r="AD18" s="1">
-        <v>3074.826</v>
+        <v>3065.377777777778</v>
       </c>
       <c r="AE18" s="1">
-        <v>4.4723472</v>
+        <v>2.550943333333334</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.56954</v>
+        <v>19.47466666666666</v>
       </c>
       <c r="AG18" s="1">
-        <v>21.45156</v>
+        <v>18.61448888888889</v>
       </c>
       <c r="AH18" s="1">
-        <v>26.5731</v>
+        <v>31.54087777777778</v>
       </c>
       <c r="AI18" s="1">
-        <v>27.97822</v>
+        <v>32.95587777777777</v>
       </c>
       <c r="AJ18" s="1">
-        <v>74.91456000000001</v>
+        <v>65.33210000000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>74.73601999999998</v>
+        <v>65.42111111111109</v>
       </c>
       <c r="AL18" s="1">
-        <v>74.8253</v>
+        <v>65.37662222222222</v>
       </c>
       <c r="AM18" s="1">
-        <v>24.99528</v>
+        <v>25.0021</v>
       </c>
       <c r="AN18" s="1">
-        <v>22.56954</v>
+        <v>19.47466666666666</v>
       </c>
       <c r="AO18" s="1">
-        <v>21.45156</v>
+        <v>18.61448888888889</v>
       </c>
       <c r="AP18" s="1">
-        <v>26.5731</v>
+        <v>31.54087777777778</v>
       </c>
       <c r="AQ18" s="1">
-        <v>27.97822</v>
+        <v>32.95587777777777</v>
       </c>
       <c r="AR18" s="1">
-        <v>161.9092</v>
+        <v>138.3386333333333</v>
       </c>
       <c r="AS18" s="1">
-        <v>161.514</v>
+        <v>138.4341111111111</v>
       </c>
       <c r="AT18" s="1">
-        <v>66.66252</v>
+        <v>66.67645555555555</v>
       </c>
       <c r="AU18" s="1">
-        <v>61.11408</v>
+        <v>57.65541111111112</v>
       </c>
       <c r="AV18" s="1">
-        <v>59.08188</v>
+        <v>56.14461111111112</v>
       </c>
       <c r="AW18" s="1">
-        <v>7.235734000000001</v>
+        <v>7.675152222222222</v>
       </c>
       <c r="AX18" s="1">
-        <v>7.482276000000001</v>
+        <v>7.872623333333333</v>
       </c>
       <c r="AY18" s="1">
-        <v>37.31494</v>
+        <v>33.70705555555556</v>
       </c>
       <c r="AZ18" s="1">
-        <v>37.72416</v>
+        <v>34.13858888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>66.68044</v>
+        <v>66.68107777777777</v>
       </c>
       <c r="BB18" s="1">
-        <v>3.559264</v>
+        <v>3.423781111111111</v>
       </c>
       <c r="BC18" s="1">
-        <v>3.404794</v>
+        <v>3.268266666666666</v>
       </c>
       <c r="BD18" s="1">
-        <v>125.17</v>
+        <v>130.9183333333333</v>
       </c>
       <c r="BE18" s="1">
-        <v>130.9916</v>
+        <v>137.4725555555556</v>
       </c>
       <c r="BF18" s="1">
-        <v>57.55220000000001</v>
+        <v>50.62773333333334</v>
       </c>
       <c r="BG18" s="1">
-        <v>54.27876</v>
+        <v>48.13828888888889</v>
       </c>
       <c r="BH18" s="1">
-        <v>66.55112</v>
+        <v>66.57878888888889</v>
       </c>
       <c r="BI18" s="1">
-        <v>9.594519999999999</v>
+        <v>8.431902222222222</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.879824000000001</v>
+        <v>7.649797777777778</v>
       </c>
       <c r="BK18" s="1">
-        <v>46.80514</v>
+        <v>54.18019999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>50.83138</v>
+        <v>60.43052222222223</v>
       </c>
       <c r="BM18" s="1">
-        <v>80.8028</v>
+        <v>70.57081111111111</v>
       </c>
       <c r="BN18" s="1">
-        <v>83.92694</v>
+        <v>72.9783888888889</v>
       </c>
       <c r="BO18" s="1">
-        <v>66.76158000000001</v>
+        <v>66.73884444444444</v>
       </c>
       <c r="BP18" s="1">
-        <v>6.202278000000001</v>
+        <v>5.503344444444445</v>
       </c>
       <c r="BQ18" s="1">
-        <v>2.740782</v>
+        <v>2.433602222222222</v>
       </c>
       <c r="BR18" s="1">
-        <v>72.53662</v>
+        <v>82.70926666666668</v>
       </c>
       <c r="BS18" s="1">
-        <v>163.777</v>
+        <v>186.7601111111111</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
@@ -4258,181 +4258,181 @@
         <v>141</v>
       </c>
       <c r="T19" s="1">
-        <v>19.4490116705194</v>
+        <v>28.35154830183196</v>
       </c>
       <c r="U19" s="1">
-        <v>19.70756690614039</v>
+        <v>28.50411160205176</v>
       </c>
       <c r="V19" s="1">
-        <v>19.57625707432348</v>
+        <v>28.42613689312473</v>
       </c>
       <c r="W19" s="1">
-        <v>0.02059695123070474</v>
+        <v>0.02323309155514857</v>
       </c>
       <c r="X19" s="1">
-        <v>4.792416511698457</v>
+        <v>6.242461843745405</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.725518250445164</v>
+        <v>4.925726736028368</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.517725913597427</v>
+        <v>3.68541883607331</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.41961246946696</v>
+        <v>3.528139006702724</v>
       </c>
       <c r="AB19" s="1">
-        <v>8.334515222854916</v>
+        <v>12.5344843837084</v>
       </c>
       <c r="AC19" s="1">
-        <v>8.056024826178199</v>
+        <v>12.17444845000079</v>
       </c>
       <c r="AD19" s="1">
-        <v>8.194941366477305</v>
+        <v>12.35305430317883</v>
       </c>
       <c r="AE19" s="1">
-        <v>6.902385076371773</v>
+        <v>5.575221644070086</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.699071943168615</v>
+        <v>4.06232851590207</v>
       </c>
       <c r="AG19" s="1">
-        <v>2.646049800438382</v>
+        <v>3.821744354623785</v>
       </c>
       <c r="AH19" s="1">
-        <v>4.332329750607634</v>
+        <v>7.000559873606583</v>
       </c>
       <c r="AI19" s="1">
-        <v>4.606825281861686</v>
+        <v>7.244630226707806</v>
       </c>
       <c r="AJ19" s="1">
-        <v>8.333788709728607</v>
+        <v>12.53359402955823</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.054139488585976</v>
+        <v>12.17262927851246</v>
       </c>
       <c r="AL19" s="1">
-        <v>8.193663181996193</v>
+        <v>12.35293184729644</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.008086383616920292</v>
+        <v>0.009841183307351398</v>
       </c>
       <c r="AN19" s="1">
-        <v>2.699071943168615</v>
+        <v>4.06232851590207</v>
       </c>
       <c r="AO19" s="1">
-        <v>2.646049800438382</v>
+        <v>3.821744354623785</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.332329750607634</v>
+        <v>7.000559873606583</v>
       </c>
       <c r="AQ19" s="1">
-        <v>4.606825281861686</v>
+        <v>7.244630226707806</v>
       </c>
       <c r="AR19" s="1">
-        <v>21.50544704394679</v>
+        <v>31.14053064466164</v>
       </c>
       <c r="AS19" s="1">
-        <v>21.24727629603381</v>
+        <v>30.55977308468855</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.01729802300842622</v>
+        <v>0.02504747097950404</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.113947226527773</v>
+        <v>4.625847525575885</v>
       </c>
       <c r="AV19" s="1">
-        <v>2.929432789739338</v>
+        <v>4.100362382479665</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.6443744180707363</v>
+        <v>0.7892499629926824</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.6459962344967656</v>
+        <v>0.7636884717823972</v>
       </c>
       <c r="AY19" s="1">
-        <v>2.981961165810179</v>
+        <v>4.73872184152626</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.972160490013955</v>
+        <v>4.711232754089939</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.0007227724399848136</v>
+        <v>0.001163116290905384</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.309766172562467</v>
+        <v>0.4298280437943745</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.3184925046904558</v>
+        <v>0.4367412194627132</v>
       </c>
       <c r="BD19" s="1">
-        <v>15.16902122089623</v>
+        <v>20.043576166831</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.39716888490206</v>
+        <v>22.20801682131483</v>
       </c>
       <c r="BF19" s="1">
-        <v>5.982032612749617</v>
+        <v>9.06718776737798</v>
       </c>
       <c r="BG19" s="1">
-        <v>5.272818366907776</v>
+        <v>8.044194126676352</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.02593232731553023</v>
+        <v>0.03663809324382375</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.105613652014121</v>
+        <v>1.582160821975776</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.170227044527685</v>
+        <v>1.661687377702943</v>
       </c>
       <c r="BK19" s="1">
-        <v>7.316119056330344</v>
+        <v>11.00550238209152</v>
       </c>
       <c r="BL19" s="1">
-        <v>8.86161379871635</v>
+        <v>13.83112899141946</v>
       </c>
       <c r="BM19" s="1">
-        <v>9.453920982111072</v>
+        <v>13.58886527683967</v>
       </c>
       <c r="BN19" s="1">
-        <v>10.24305029873426</v>
+        <v>14.56611984842791</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.03259873617182138</v>
+        <v>0.03876387525378869</v>
       </c>
       <c r="BP19" s="1">
-        <v>0.7860155946391905</v>
+        <v>1.000928203342734</v>
       </c>
       <c r="BQ19" s="1">
-        <v>0.325150903083476</v>
+        <v>0.4315145207233028</v>
       </c>
       <c r="BR19" s="1">
-        <v>12.11549840929377</v>
+        <v>16.49884814383517</v>
       </c>
       <c r="BS19" s="1">
-        <v>26.19424950633249</v>
+        <v>36.6433703339649</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
@@ -4440,181 +4440,181 @@
         <v>142</v>
       </c>
       <c r="T20" s="1">
-        <v>10.9200798584862</v>
+        <v>18.1038204117135</v>
       </c>
       <c r="U20" s="1">
-        <v>10.9914048460402</v>
+        <v>18.07145856974055</v>
       </c>
       <c r="V20" s="1">
-        <v>10.95471841008893</v>
+        <v>18.08650436569315</v>
       </c>
       <c r="W20" s="1">
-        <v>0.03087435818403233</v>
+        <v>0.03482699398213548</v>
       </c>
       <c r="X20" s="1">
-        <v>14.70873138917436</v>
+        <v>22.20562241286906</v>
       </c>
       <c r="Y20" s="1">
-        <v>12.68337524374282</v>
+        <v>19.01652042982591</v>
       </c>
       <c r="Z20" s="1">
-        <v>18.1393663758199</v>
+        <v>22.45081689258865</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.82414123586037</v>
+        <v>20.04337197909422</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.271048726008432</v>
+        <v>0.4089112702465915</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.2620068710302536</v>
+        <v>0.3971540482007447</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.266517239234913</v>
+        <v>0.4029863592256509</v>
       </c>
       <c r="AE20" s="1">
-        <v>154.3347322491369</v>
+        <v>218.5552917314282</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.95891428522077</v>
+        <v>20.85955351859888</v>
       </c>
       <c r="AG20" s="1">
-        <v>12.33499941467372</v>
+        <v>20.53101955920481</v>
       </c>
       <c r="AH20" s="1">
-        <v>16.3034412643148</v>
+        <v>22.19519673145828</v>
       </c>
       <c r="AI20" s="1">
-        <v>16.4657554407024</v>
+        <v>21.98281676961698</v>
       </c>
       <c r="AJ20" s="1">
-        <v>11.12439118607732</v>
+        <v>19.18443464936568</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.77678405752136</v>
+        <v>18.60657679420713</v>
       </c>
       <c r="AL20" s="1">
-        <v>10.95039135425611</v>
+        <v>18.89502918230845</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.03235164245777719</v>
+        <v>0.03936142686954855</v>
       </c>
       <c r="AN20" s="1">
-        <v>11.95891428522077</v>
+        <v>20.85955351859888</v>
       </c>
       <c r="AO20" s="1">
-        <v>12.33499941467372</v>
+        <v>20.53101955920481</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.3034412643148</v>
+        <v>22.19519673145828</v>
       </c>
       <c r="AQ20" s="1">
-        <v>16.4657554407024</v>
+        <v>21.98281676961698</v>
       </c>
       <c r="AR20" s="1">
-        <v>13.28241202102585</v>
+        <v>22.51036452675305</v>
       </c>
       <c r="AS20" s="1">
-        <v>13.15506785543903</v>
+        <v>22.07532004894401</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.02594864851857719</v>
+        <v>0.03756569057369016</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.095302467987365</v>
+        <v>8.0232669170655</v>
       </c>
       <c r="AV20" s="1">
-        <v>4.958259266190138</v>
+        <v>7.303216286181019</v>
       </c>
       <c r="AW20" s="1">
-        <v>8.90544646985</v>
+        <v>10.28318318830903</v>
       </c>
       <c r="AX20" s="1">
-        <v>8.633686253978944</v>
+        <v>9.700559006155896</v>
       </c>
       <c r="AY20" s="1">
-        <v>7.99133313844315</v>
+        <v>14.05854579530376</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.878665794053347</v>
+        <v>13.80031485608155</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.001083934719064262</v>
+        <v>0.001744297377408327</v>
       </c>
       <c r="BB20" s="1">
-        <v>8.7030962739057</v>
+        <v>12.55419169173708</v>
       </c>
       <c r="BC20" s="1">
-        <v>9.354237134183618</v>
+        <v>13.36308398323412</v>
       </c>
       <c r="BD20" s="1">
-        <v>12.11873549644182</v>
+        <v>15.309984214203</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.51772547621531</v>
+        <v>16.15450933574891</v>
       </c>
       <c r="BF20" s="1">
-        <v>10.39409894452274</v>
+        <v>17.90952738823908</v>
       </c>
       <c r="BG20" s="1">
-        <v>9.71433092227563</v>
+        <v>16.71059423246987</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.038966026891103</v>
+        <v>0.0550296781531545</v>
       </c>
       <c r="BI20" s="1">
-        <v>11.52338680845025</v>
+        <v>18.76398445188325</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.17849367879008</v>
+        <v>21.72197783489192</v>
       </c>
       <c r="BK20" s="1">
-        <v>15.63101628652396</v>
+        <v>20.31277548272528</v>
       </c>
       <c r="BL20" s="1">
-        <v>17.43335278073574</v>
+        <v>22.88765425616877</v>
       </c>
       <c r="BM20" s="1">
-        <v>11.69999180982722</v>
+        <v>19.2556455890021</v>
       </c>
       <c r="BN20" s="1">
-        <v>12.20472270135699</v>
+        <v>19.95949769541381</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.04882858699842241</v>
+        <v>0.05808292843016932</v>
       </c>
       <c r="BP20" s="1">
-        <v>12.67301457043993</v>
+        <v>18.18763505441057</v>
       </c>
       <c r="BQ20" s="1">
-        <v>11.86343543862577</v>
+        <v>17.73151408159339</v>
       </c>
       <c r="BR20" s="1">
-        <v>16.7025957499726</v>
+        <v>19.94800438786202</v>
       </c>
       <c r="BS20" s="1">
-        <v>15.99385109406846</v>
+        <v>19.62055500821815</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmin_tran_channel_a_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmin_tran_channel_a_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="143">
   <si>
     <t>Process</t>
   </si>
@@ -409,6 +409,9 @@
     <t>0.00000e00</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>tsmc2ff (7)</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -489,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,160 +1122,160 @@
         <v>91</v>
       </c>
       <c r="T2">
-        <v>147.064</v>
+        <v>146.794</v>
       </c>
       <c r="U2">
-        <v>148.3</v>
+        <v>148.19</v>
       </c>
       <c r="V2">
-        <v>147.682</v>
+        <v>147.492</v>
       </c>
       <c r="W2" s="2">
-        <v>66.7122</v>
-      </c>
-      <c r="X2" s="3">
-        <v>25.8145</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>24.2151</v>
+        <v>-49.8676</v>
+      </c>
+      <c r="X2" s="2">
+        <v>25.6329</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>24.3748</v>
       </c>
       <c r="Z2">
-        <v>17.4321</v>
+        <v>17.5556</v>
       </c>
       <c r="AA2">
-        <v>18.5835</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3061.46</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>3061.66</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>3061.56</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0.197333</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>18.1506</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>17.2812</v>
+        <v>18.4617</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>8061.42</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>9061.629999999999</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>8561.52</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>5.85723</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>18.1523</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>17.2806</v>
       </c>
       <c r="AH2">
-        <v>33.0568</v>
+        <v>33.0536</v>
       </c>
       <c r="AI2">
-        <v>34.7198</v>
+        <v>34.7211</v>
       </c>
       <c r="AJ2">
-        <v>61.4633</v>
+        <v>-938.5800000000002</v>
       </c>
       <c r="AK2">
-        <v>61.66160000000001</v>
+        <v>61.62629999999999</v>
       </c>
       <c r="AL2">
-        <v>61.5624</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>25.0047</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>18.1506</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>17.2812</v>
+        <v>-438.477</v>
+      </c>
+      <c r="AM2">
+        <v>50.0225</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>18.1523</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>17.2806</v>
       </c>
       <c r="AP2">
-        <v>33.0568</v>
+        <v>33.0536</v>
       </c>
       <c r="AQ2">
-        <v>34.7198</v>
+        <v>34.7211</v>
       </c>
       <c r="AR2">
-        <v>127.406</v>
+        <v>127.06</v>
       </c>
       <c r="AS2">
-        <v>127.892</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>66.6888</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>56.2563</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>54.8384</v>
+        <v>127.835</v>
+      </c>
+      <c r="AT2">
+        <v>49.9332</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>56.0622</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>55.0155</v>
       </c>
       <c r="AW2">
-        <v>7.99911</v>
+        <v>8.0268</v>
       </c>
       <c r="AX2">
-        <v>8.20593</v>
+        <v>8.179510000000001</v>
       </c>
       <c r="AY2">
-        <v>32.3224</v>
+        <v>32.3248</v>
       </c>
       <c r="AZ2">
-        <v>32.7492</v>
+        <v>32.7513</v>
       </c>
       <c r="BA2" s="2">
-        <v>66.6812</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>3.17357</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>3.02093</v>
+        <v>-49.9565</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>3.16763</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>3.01758</v>
       </c>
       <c r="BD2">
-        <v>141.796</v>
+        <v>142.062</v>
       </c>
       <c r="BE2">
-        <v>148.961</v>
+        <v>149.126</v>
       </c>
       <c r="BF2">
-        <v>47.693</v>
+        <v>47.6026</v>
       </c>
       <c r="BG2">
-        <v>45.5887</v>
+        <v>45.5026</v>
       </c>
       <c r="BH2" s="2">
-        <v>66.59269999999999</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>7.84582</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>7.01585</v>
+        <v>-50.2216</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>7.84982</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>6.98977</v>
       </c>
       <c r="BK2">
-        <v>57.3554</v>
+        <v>57.3261</v>
       </c>
       <c r="BL2">
-        <v>64.1405</v>
+        <v>64.3798</v>
       </c>
       <c r="BM2">
-        <v>66.05930000000001</v>
+        <v>65.95829999999999</v>
       </c>
       <c r="BN2">
-        <v>68.3738</v>
+        <v>68.1789</v>
       </c>
       <c r="BO2" s="2">
-        <v>66.73520000000001</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>5.12296</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>2.26902</v>
+        <v>-49.8051</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>5.11459</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>2.27248</v>
       </c>
       <c r="BR2">
-        <v>87.8398</v>
+        <v>87.9836</v>
       </c>
       <c r="BS2">
-        <v>198.324</v>
+        <v>198.021</v>
       </c>
       <c r="BT2" s="4" t="s">
         <v>92</v>
@@ -1358,160 +1358,160 @@
         <v>108</v>
       </c>
       <c r="T3">
-        <v>174.076</v>
+        <v>173.711</v>
       </c>
       <c r="U3">
-        <v>174.373</v>
+        <v>174.242</v>
       </c>
       <c r="V3">
-        <v>174.225</v>
+        <v>173.977</v>
       </c>
       <c r="W3" s="2">
-        <v>66.6823</v>
-      </c>
-      <c r="X3" s="3">
-        <v>33.7049</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>30.9869</v>
+        <v>-49.9589</v>
+      </c>
+      <c r="X3" s="2">
+        <v>33.2773</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>31.2966</v>
       </c>
       <c r="Z3">
-        <v>13.7072</v>
+        <v>13.8833</v>
       </c>
       <c r="AA3">
-        <v>14.9095</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3073.8</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>3073.86</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>3073.83</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>3.5074</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>22.7557</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>21.9964</v>
+        <v>14.762</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>8073.75</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>9073.83</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>8573.790000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.738456</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>22.7574</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>21.9959</v>
       </c>
       <c r="AH3">
-        <v>27.1756</v>
+        <v>27.1736</v>
       </c>
       <c r="AI3">
-        <v>28.1137</v>
+        <v>28.1143</v>
       </c>
       <c r="AJ3">
-        <v>73.7985</v>
+        <v>-926.2479999999999</v>
       </c>
       <c r="AK3">
-        <v>73.8557</v>
+        <v>73.8339</v>
       </c>
       <c r="AL3">
-        <v>73.8271</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>25.0016</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>22.7557</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>21.9964</v>
+        <v>-426.207</v>
+      </c>
+      <c r="AM3">
+        <v>50.0096</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>22.7574</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>21.9959</v>
       </c>
       <c r="AP3">
-        <v>27.1756</v>
+        <v>27.1736</v>
       </c>
       <c r="AQ3">
-        <v>28.1137</v>
+        <v>28.1143</v>
       </c>
       <c r="AR3">
-        <v>158.539</v>
+        <v>157.921</v>
       </c>
       <c r="AS3">
-        <v>157.319</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>66.63679999999999</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>62.6183</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>60.7476</v>
+        <v>157.41</v>
+      </c>
+      <c r="AT3">
+        <v>50.0837</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>62.3182</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>61.02359999999999</v>
       </c>
       <c r="AW3">
-        <v>7.37804</v>
+        <v>7.41357</v>
       </c>
       <c r="AX3">
-        <v>7.60524</v>
+        <v>7.57084</v>
       </c>
       <c r="AY3">
-        <v>37.6063</v>
+        <v>37.6062</v>
       </c>
       <c r="AZ3">
-        <v>38.0083</v>
+        <v>38.0078</v>
       </c>
       <c r="BA3" s="2">
-        <v>66.6799</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>3.79066</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>3.65492</v>
+        <v>-49.9604</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>3.786630000000001</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>3.65032</v>
       </c>
       <c r="BD3">
-        <v>122.353</v>
+        <v>122.484</v>
       </c>
       <c r="BE3">
-        <v>126.898</v>
+        <v>127.057</v>
       </c>
       <c r="BF3">
-        <v>57.0317</v>
+        <v>56.91540000000001</v>
       </c>
       <c r="BG3">
-        <v>54.0229</v>
+        <v>53.916</v>
       </c>
       <c r="BH3" s="2">
-        <v>66.5604</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>9.85094</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>9.11847</v>
+        <v>-50.3177</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>9.855589999999999</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>9.07464</v>
       </c>
       <c r="BK3">
-        <v>47.0818</v>
+        <v>47.0596</v>
       </c>
       <c r="BL3">
-        <v>50.8638</v>
+        <v>51.1095</v>
       </c>
       <c r="BM3">
-        <v>78.217</v>
+        <v>78.0819</v>
       </c>
       <c r="BN3">
-        <v>80.3374</v>
+        <v>80.0381</v>
       </c>
       <c r="BO3" s="2">
-        <v>66.7281</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>5.97597</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>2.68031</v>
+        <v>-49.8327</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>5.96984</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>2.68704</v>
       </c>
       <c r="BR3">
-        <v>77.3096</v>
+        <v>77.389</v>
       </c>
       <c r="BS3">
-        <v>172.368</v>
+        <v>171.936</v>
       </c>
       <c r="BT3" s="4" t="s">
         <v>92</v>
@@ -1594,160 +1594,160 @@
         <v>112</v>
       </c>
       <c r="T4">
-        <v>171.851</v>
+        <v>171.515</v>
       </c>
       <c r="U4">
-        <v>173.025</v>
+        <v>172.978</v>
       </c>
       <c r="V4">
-        <v>172.438</v>
+        <v>172.246</v>
       </c>
       <c r="W4" s="2">
-        <v>66.7109</v>
-      </c>
-      <c r="X4" s="3">
-        <v>29.2916</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>26.708</v>
+        <v>-49.8624</v>
+      </c>
+      <c r="X4" s="2">
+        <v>29.0415</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>26.9053</v>
       </c>
       <c r="Z4">
-        <v>15.7724</v>
+        <v>15.9083</v>
       </c>
       <c r="AA4">
-        <v>17.2982</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>3071.89</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>3071.77</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>3071.83</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0.266335</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>21.3184</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>19.9039</v>
+        <v>17.1713</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>8071.84</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>9071.720000000001</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>8571.780000000001</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1.08066</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>21.3176</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>19.9022</v>
       </c>
       <c r="AH4">
-        <v>29.0077</v>
+        <v>29.0089</v>
       </c>
       <c r="AI4">
-        <v>31.0692</v>
+        <v>31.0719</v>
       </c>
       <c r="AJ4">
-        <v>71.8896</v>
+        <v>-928.162</v>
       </c>
       <c r="AK4">
-        <v>71.76989999999999</v>
+        <v>71.71850000000001</v>
       </c>
       <c r="AL4">
-        <v>71.82980000000001</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>24.9966</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>21.3184</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>19.9039</v>
+        <v>-428.222</v>
+      </c>
+      <c r="AM4">
+        <v>49.9906</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>21.3176</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>19.9022</v>
       </c>
       <c r="AP4">
-        <v>29.0077</v>
+        <v>29.0089</v>
       </c>
       <c r="AQ4">
-        <v>31.0692</v>
+        <v>31.0719</v>
       </c>
       <c r="AR4">
-        <v>154.141</v>
+        <v>153.647</v>
       </c>
       <c r="AS4">
-        <v>153.771</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>66.6615</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>59.1561</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>57.0143</v>
+        <v>153.83</v>
+      </c>
+      <c r="AT4">
+        <v>50.0026</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>58.9132</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>57.22470000000001</v>
       </c>
       <c r="AW4">
-        <v>7.80985</v>
+        <v>7.84205</v>
       </c>
       <c r="AX4">
-        <v>8.10323</v>
+        <v>8.07343</v>
       </c>
       <c r="AY4">
-        <v>36.0438</v>
+        <v>36.0464</v>
       </c>
       <c r="AZ4">
-        <v>36.459</v>
+        <v>36.4623</v>
       </c>
       <c r="BA4" s="2">
-        <v>66.681</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>3.24739</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>3.09061</v>
+        <v>-49.9569</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>3.24775</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>3.09269</v>
       </c>
       <c r="BD4">
-        <v>142.823</v>
+        <v>142.807</v>
       </c>
       <c r="BE4">
-        <v>150.068</v>
+        <v>149.966</v>
       </c>
       <c r="BF4">
-        <v>55.5423</v>
+        <v>55.4211</v>
       </c>
       <c r="BG4">
-        <v>52.325</v>
+        <v>52.2056</v>
       </c>
       <c r="BH4" s="2">
-        <v>66.553</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>8.933440000000001</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>8.21719</v>
+        <v>-50.3406</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>8.939010000000001</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>8.21763</v>
       </c>
       <c r="BK4">
-        <v>51.9173</v>
+        <v>51.8849</v>
       </c>
       <c r="BL4">
-        <v>56.4427</v>
+        <v>56.4396</v>
       </c>
       <c r="BM4">
-        <v>77.89670000000001</v>
+        <v>77.77630000000001</v>
       </c>
       <c r="BN4">
-        <v>81.03</v>
+        <v>80.9014</v>
       </c>
       <c r="BO4" s="2">
-        <v>66.7627</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>5.707450000000001</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>2.54586</v>
+        <v>-49.7175</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>5.69878</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>2.54484</v>
       </c>
       <c r="BR4">
-        <v>80.9468</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="BS4">
-        <v>181.471</v>
+        <v>181.544</v>
       </c>
       <c r="BT4" s="4" t="s">
         <v>92</v>
@@ -1830,160 +1830,160 @@
         <v>115</v>
       </c>
       <c r="T5">
-        <v>195.683</v>
+        <v>195.244</v>
       </c>
       <c r="U5">
-        <v>196.738</v>
+        <v>196.545</v>
       </c>
       <c r="V5">
-        <v>196.211</v>
+        <v>195.895</v>
       </c>
       <c r="W5" s="2">
-        <v>66.7084</v>
+        <v>-49.8843</v>
       </c>
       <c r="X5">
-        <v>39.9676</v>
+        <v>39.0719</v>
       </c>
       <c r="Y5">
-        <v>35.1052</v>
+        <v>35.6902</v>
       </c>
       <c r="Z5">
-        <v>10.3584</v>
+        <v>10.5959</v>
       </c>
       <c r="AA5">
-        <v>11.7931</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>3082.94</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>3082.62</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>3082.78</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>18.047</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>25.6729</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>24.9165</v>
+        <v>11.5998</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>8082.88</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>9082.59</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>8582.73</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>17.8485</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>25.6741</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>24.9155</v>
       </c>
       <c r="AH5">
-        <v>21.5013</v>
+        <v>21.5003</v>
       </c>
       <c r="AI5">
-        <v>22.154</v>
+        <v>22.1549</v>
       </c>
       <c r="AJ5">
-        <v>82.9414</v>
+        <v>-917.12</v>
       </c>
       <c r="AK5">
-        <v>82.6156</v>
+        <v>82.5874</v>
       </c>
       <c r="AL5">
-        <v>82.77849999999999</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>24.9918</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>25.6729</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>24.9165</v>
+        <v>-417.266</v>
+      </c>
+      <c r="AM5">
+        <v>49.9719</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>25.6741</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>24.9155</v>
       </c>
       <c r="AP5">
-        <v>21.5013</v>
+        <v>21.5003</v>
       </c>
       <c r="AQ5">
-        <v>22.154</v>
+        <v>22.1549</v>
       </c>
       <c r="AR5">
-        <v>182.648</v>
+        <v>181.858</v>
       </c>
       <c r="AS5">
-        <v>181.908</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>66.65430000000001</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>65.3</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>63.2836</v>
+        <v>182.013</v>
+      </c>
+      <c r="AT5">
+        <v>50.0307</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>64.95150000000001</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>63.60900000000001</v>
       </c>
       <c r="AW5">
-        <v>6.33997</v>
+        <v>6.37399</v>
       </c>
       <c r="AX5">
-        <v>6.54198</v>
+        <v>6.50851</v>
       </c>
       <c r="AY5">
-        <v>40.30390000000001</v>
+        <v>40.3032</v>
       </c>
       <c r="AZ5">
-        <v>40.691</v>
+        <v>40.6927</v>
       </c>
       <c r="BA5" s="2">
-        <v>66.6793</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>3.98149</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>3.85039</v>
+        <v>-49.9618</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>3.97914</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>3.84905</v>
       </c>
       <c r="BD5">
-        <v>103.981</v>
+        <v>104.043</v>
       </c>
       <c r="BE5">
-        <v>107.521</v>
+        <v>107.559</v>
       </c>
       <c r="BF5">
-        <v>63.1734</v>
+        <v>63.0392</v>
       </c>
       <c r="BG5">
-        <v>59.4032</v>
+        <v>59.2736</v>
       </c>
       <c r="BH5" s="2">
-        <v>66.5335</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>11.0123</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>10.3839</v>
+        <v>-50.3994</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>11.0169</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>10.3383</v>
       </c>
       <c r="BK5">
-        <v>37.5942</v>
+        <v>37.5785</v>
       </c>
       <c r="BL5">
-        <v>39.8692</v>
+        <v>40.0455</v>
       </c>
       <c r="BM5">
-        <v>88.72450000000001</v>
+        <v>88.56779999999999</v>
       </c>
       <c r="BN5">
-        <v>91.9012</v>
+        <v>91.5099</v>
       </c>
       <c r="BO5" s="2">
-        <v>66.7612</v>
-      </c>
-      <c r="BP5" s="3">
-        <v>7.04214</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>3.10802</v>
+        <v>-49.7409</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>7.03347</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>3.11795</v>
       </c>
       <c r="BR5">
-        <v>58.7889</v>
+        <v>58.8614</v>
       </c>
       <c r="BS5">
-        <v>133.204</v>
+        <v>132.78</v>
       </c>
       <c r="BT5" s="4" t="s">
         <v>92</v>
@@ -2066,160 +2066,160 @@
         <v>108</v>
       </c>
       <c r="T6">
-        <v>201.842</v>
+        <v>201.414</v>
       </c>
       <c r="U6">
-        <v>204.063</v>
+        <v>203.996</v>
       </c>
       <c r="V6">
-        <v>202.952</v>
+        <v>202.705</v>
       </c>
       <c r="W6" s="2">
-        <v>66.747</v>
-      </c>
-      <c r="X6">
-        <v>34.132</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>29.851</v>
+        <v>-49.7533</v>
+      </c>
+      <c r="X6" s="2">
+        <v>33.6569</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>30.1258</v>
       </c>
       <c r="Z6">
-        <v>12.1294</v>
+        <v>12.3006</v>
       </c>
       <c r="AA6">
-        <v>13.8689</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>3084.48</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>3083.78</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>3084.13</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0.343668</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>24.9501</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>23.1598</v>
+        <v>13.7424</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>8084.41</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>9083.700000000001</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>8584.060000000001</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.43924</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>24.9499</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>23.1607</v>
       </c>
       <c r="AH6">
-        <v>22.1241</v>
+        <v>22.1244</v>
       </c>
       <c r="AI6">
-        <v>23.8344</v>
+        <v>23.8334</v>
       </c>
       <c r="AJ6">
-        <v>84.48</v>
+        <v>-915.59</v>
       </c>
       <c r="AK6">
-        <v>83.7773</v>
+        <v>83.702</v>
       </c>
       <c r="AL6">
-        <v>84.12869999999999</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>24.9817</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>24.9501</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>23.1598</v>
+        <v>-415.944</v>
+      </c>
+      <c r="AM6">
+        <v>49.9329</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>24.9499</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>23.1607</v>
       </c>
       <c r="AP6">
-        <v>22.1241</v>
+        <v>22.1244</v>
       </c>
       <c r="AQ6">
-        <v>23.8344</v>
+        <v>23.8334</v>
       </c>
       <c r="AR6">
-        <v>186.812</v>
+        <v>186.138</v>
       </c>
       <c r="AS6">
-        <v>186.68</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>66.6712</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>62.23970000000001</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>59.5255</v>
+        <v>186.8</v>
+      </c>
+      <c r="AT6">
+        <v>49.9694</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>61.9369</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>59.7815</v>
       </c>
       <c r="AW6">
-        <v>6.6517</v>
+        <v>6.68422</v>
       </c>
       <c r="AX6">
-        <v>6.955</v>
+        <v>6.92522</v>
       </c>
       <c r="AY6">
-        <v>40.2983</v>
+        <v>40.30370000000001</v>
       </c>
       <c r="AZ6">
-        <v>40.7133</v>
+        <v>40.7165</v>
       </c>
       <c r="BA6" s="2">
-        <v>66.6808</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>3.60321</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>3.40712</v>
+        <v>-49.9578</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>3.60492</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>3.40988</v>
       </c>
       <c r="BD6">
-        <v>114.897</v>
+        <v>114.843</v>
       </c>
       <c r="BE6">
-        <v>121.51</v>
+        <v>121.412</v>
       </c>
       <c r="BF6">
-        <v>64.3206</v>
+        <v>64.17449999999999</v>
       </c>
       <c r="BG6">
-        <v>60.054</v>
+        <v>59.9019</v>
       </c>
       <c r="BH6" s="2">
-        <v>66.51600000000001</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>10.3301</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>9.66371</v>
+        <v>-50.4521</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>10.337</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>9.661209999999999</v>
       </c>
       <c r="BK6">
-        <v>40.077</v>
+        <v>40.0504</v>
       </c>
       <c r="BL6">
-        <v>42.8407</v>
+        <v>42.8518</v>
       </c>
       <c r="BM6">
-        <v>93.1165</v>
+        <v>92.9776</v>
       </c>
       <c r="BN6">
-        <v>97.9923</v>
+        <v>97.83070000000001</v>
       </c>
       <c r="BO6" s="2">
-        <v>66.8207</v>
-      </c>
-      <c r="BP6" s="3">
-        <v>7.162870000000001</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>3.1007</v>
+        <v>-49.5468</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>7.15137</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>3.09845</v>
       </c>
       <c r="BR6">
-        <v>57.798</v>
+        <v>57.891</v>
       </c>
       <c r="BS6">
-        <v>133.518</v>
+        <v>133.615</v>
       </c>
       <c r="BT6" s="4" t="s">
         <v>92</v>
@@ -2302,160 +2302,160 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>129.808</v>
+        <v>129.622</v>
       </c>
       <c r="U7">
-        <v>129.951</v>
+        <v>129.957</v>
       </c>
       <c r="V7">
-        <v>129.879</v>
+        <v>129.789</v>
       </c>
       <c r="W7" s="2">
-        <v>66.6739</v>
-      </c>
-      <c r="X7" s="3">
-        <v>23.3843</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>22.6187</v>
+        <v>-49.9755</v>
+      </c>
+      <c r="X7" s="2">
+        <v>23.2346</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>22.7631</v>
       </c>
       <c r="Z7">
-        <v>19.7569</v>
+        <v>19.8842</v>
       </c>
       <c r="AA7">
-        <v>20.4256</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>3053.85</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>3054.38</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>3054.12</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0.13485</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>15.8773</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>15.5549</v>
+        <v>20.296</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>8053.860000000001</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>9054.379999999999</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>8554.120000000001</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0.404894</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>15.8781</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>15.5553</v>
       </c>
       <c r="AH7">
-        <v>38.9487</v>
+        <v>38.9468</v>
       </c>
       <c r="AI7">
-        <v>39.756</v>
+        <v>39.755</v>
       </c>
       <c r="AJ7">
-        <v>53.8548</v>
+        <v>-946.145</v>
       </c>
       <c r="AK7">
-        <v>54.383</v>
+        <v>54.3839</v>
       </c>
       <c r="AL7">
-        <v>54.1189</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>25.0135</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>15.8773</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>15.5549</v>
+        <v>-445.8800000000001</v>
+      </c>
+      <c r="AM7">
+        <v>50.0537</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>15.8781</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>15.5553</v>
       </c>
       <c r="AP7">
-        <v>38.9487</v>
+        <v>38.9468</v>
       </c>
       <c r="AQ7">
-        <v>39.756</v>
+        <v>39.755</v>
       </c>
       <c r="AR7">
-        <v>109.08</v>
+        <v>108.859</v>
       </c>
       <c r="AS7">
-        <v>108.95</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>66.66549999999999</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>54.1935</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>53.4857</v>
+        <v>108.985</v>
+      </c>
+      <c r="AT7">
+        <v>49.998</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>54.03080000000001</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>53.6431</v>
       </c>
       <c r="AW7">
-        <v>8.52501</v>
+        <v>8.55068</v>
       </c>
       <c r="AX7">
-        <v>8.63782</v>
+        <v>8.61247</v>
       </c>
       <c r="AY7">
-        <v>30.1841</v>
+        <v>30.1866</v>
       </c>
       <c r="AZ7">
-        <v>30.6469</v>
+        <v>30.6502</v>
       </c>
       <c r="BA7" s="2">
-        <v>66.6814</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>3.74881</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>3.58861</v>
+        <v>-49.9553</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>3.73154</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>3.5702</v>
       </c>
       <c r="BD7">
-        <v>123.719</v>
+        <v>124.292</v>
       </c>
       <c r="BE7">
-        <v>129.242</v>
+        <v>129.909</v>
       </c>
       <c r="BF7">
-        <v>42.8251</v>
+        <v>42.7571</v>
       </c>
       <c r="BG7">
-        <v>41.3228</v>
+        <v>41.2625</v>
       </c>
       <c r="BH7" s="2">
-        <v>66.6134</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>7.271920000000001</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>6.33408</v>
+        <v>-50.1591</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>7.27384</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>6.32005</v>
       </c>
       <c r="BK7">
-        <v>63.7796</v>
+        <v>63.7628</v>
       </c>
       <c r="BL7">
-        <v>73.223</v>
+        <v>73.38549999999999</v>
       </c>
       <c r="BM7">
-        <v>57.7192</v>
+        <v>57.6441</v>
       </c>
       <c r="BN7">
-        <v>58.2403</v>
+        <v>58.1418</v>
       </c>
       <c r="BO7" s="2">
-        <v>66.679</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>4.50512</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>2.02474</v>
+        <v>-49.9653</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>4.506019999999999</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>2.0264</v>
       </c>
       <c r="BR7">
-        <v>102.55</v>
+        <v>102.529</v>
       </c>
       <c r="BS7">
-        <v>228.177</v>
+        <v>227.99</v>
       </c>
       <c r="BT7" s="4" t="s">
         <v>92</v>
@@ -2537,187 +2537,187 @@
       <c r="S8" t="s">
         <v>130</v>
       </c>
-      <c r="T8">
-        <v>120.745</v>
-      </c>
-      <c r="U8">
-        <v>122.084</v>
-      </c>
-      <c r="V8">
-        <v>121.414</v>
-      </c>
-      <c r="W8" s="2">
-        <v>66.7244</v>
-      </c>
-      <c r="X8" s="3">
-        <v>20.3203</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>19.2525</v>
-      </c>
-      <c r="Z8">
-        <v>22.7358</v>
-      </c>
-      <c r="AA8">
-        <v>23.9969</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>3049.02</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>3049.49</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>3049.26</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0.143611</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>13.4214</v>
-      </c>
-      <c r="AH8">
-        <v>43.7585</v>
-      </c>
-      <c r="AI8">
-        <v>46.0756</v>
-      </c>
-      <c r="AJ8">
-        <v>49.0237</v>
-      </c>
-      <c r="AK8">
-        <v>49.4948</v>
-      </c>
-      <c r="AL8">
-        <v>49.2593</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>25.0117</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>13.4214</v>
-      </c>
-      <c r="AP8">
-        <v>43.7585</v>
-      </c>
-      <c r="AQ8">
-        <v>46.0756</v>
-      </c>
-      <c r="AR8">
-        <v>99.2927</v>
-      </c>
-      <c r="AS8">
-        <v>100.336</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>66.70529999999999</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>51.3256</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>50.3576</v>
-      </c>
-      <c r="AW8">
-        <v>9.00136</v>
-      </c>
-      <c r="AX8">
-        <v>9.174379999999999</v>
-      </c>
-      <c r="AY8">
-        <v>26.8668</v>
-      </c>
-      <c r="AZ8">
-        <v>27.349</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>66.6832</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>2.72664</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>2.55628</v>
-      </c>
-      <c r="BD8">
-        <v>170.1</v>
-      </c>
-      <c r="BE8">
-        <v>181.436</v>
-      </c>
-      <c r="BF8">
-        <v>38.5631</v>
-      </c>
-      <c r="BG8">
-        <v>37.2685</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>66.6212</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>6.25482</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>5.45565</v>
-      </c>
-      <c r="BK8">
-        <v>74.15089999999999</v>
-      </c>
-      <c r="BL8">
-        <v>85.0127</v>
-      </c>
-      <c r="BM8">
-        <v>53.1426</v>
-      </c>
-      <c r="BN8">
-        <v>54.9078</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>66.7188</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>4.16801</v>
-      </c>
-      <c r="BQ8" s="3">
-        <v>1.83899</v>
-      </c>
-      <c r="BR8">
-        <v>110.844</v>
-      </c>
-      <c r="BS8">
-        <v>251.225</v>
+      <c r="T8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS8" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BU8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BV8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>118</v>
@@ -2774,160 +2774,160 @@
         <v>91</v>
       </c>
       <c r="T9">
-        <v>137.594</v>
+        <v>137.39</v>
       </c>
       <c r="U9">
-        <v>138.264</v>
+        <v>138.265</v>
       </c>
       <c r="V9">
-        <v>137.929</v>
+        <v>137.827</v>
       </c>
       <c r="W9" s="2">
-        <v>66.69159999999999</v>
-      </c>
-      <c r="X9" s="3">
-        <v>24.7113</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>23.9518</v>
+        <v>-49.9219</v>
+      </c>
+      <c r="X9" s="2">
+        <v>24.5482</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>24.1111</v>
       </c>
       <c r="Z9">
-        <v>16.7535</v>
+        <v>16.8648</v>
       </c>
       <c r="AA9">
-        <v>17.2847</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>3057.17</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>3057.57</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>3057.37</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0.150078</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>17.036</v>
-      </c>
-      <c r="AG9" s="3">
+        <v>17.1705</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8057.17</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>9057.57</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>8557.370000000001</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.450149</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>17.0363</v>
+      </c>
+      <c r="AG9" s="2">
         <v>16.7138</v>
       </c>
       <c r="AH9">
-        <v>32.4019</v>
+        <v>32.4013</v>
       </c>
       <c r="AI9">
-        <v>33.0265</v>
+        <v>33.0266</v>
       </c>
       <c r="AJ9">
-        <v>57.1673</v>
+        <v>-942.8299999999999</v>
       </c>
       <c r="AK9">
-        <v>57.5663</v>
+        <v>57.5669</v>
       </c>
       <c r="AL9">
-        <v>57.3668</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>25.0101</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>17.036</v>
-      </c>
-      <c r="AO9" s="3">
+        <v>-442.632</v>
+      </c>
+      <c r="AM9">
+        <v>50.0406</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>17.0363</v>
+      </c>
+      <c r="AO9" s="2">
         <v>16.7138</v>
       </c>
       <c r="AP9">
-        <v>32.4019</v>
+        <v>32.4013</v>
       </c>
       <c r="AQ9">
-        <v>33.0265</v>
+        <v>33.0266</v>
       </c>
       <c r="AR9">
-        <v>117.382</v>
+        <v>117.124</v>
       </c>
       <c r="AS9">
-        <v>117.722</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>66.68129999999999</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>55.3368</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>54.6431</v>
+        <v>117.77</v>
+      </c>
+      <c r="AT9">
+        <v>49.9495</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>55.1589</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>54.81630000000001</v>
       </c>
       <c r="AW9">
-        <v>7.48146</v>
+        <v>7.50559</v>
       </c>
       <c r="AX9">
-        <v>7.57644</v>
+        <v>7.5525</v>
       </c>
       <c r="AY9">
-        <v>31.264</v>
+        <v>31.2685</v>
       </c>
       <c r="AZ9">
-        <v>31.6911</v>
+        <v>31.6941</v>
       </c>
       <c r="BA9" s="2">
-        <v>66.6803</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>3.74703</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>3.60465</v>
+        <v>-49.9591</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>3.73205</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>3.58943</v>
       </c>
       <c r="BD9">
-        <v>110.487</v>
+        <v>110.931</v>
       </c>
       <c r="BE9">
-        <v>114.852</v>
+        <v>115.339</v>
       </c>
       <c r="BF9">
-        <v>44.9776</v>
+        <v>44.9085</v>
       </c>
       <c r="BG9">
-        <v>43.2905</v>
+        <v>43.2242</v>
       </c>
       <c r="BH9" s="2">
-        <v>66.60680000000001</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>7.69797</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>6.78131</v>
+        <v>-50.1792</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>7.6964</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>6.7668</v>
       </c>
       <c r="BK9">
-        <v>53.7804</v>
+        <v>53.7914</v>
       </c>
       <c r="BL9">
-        <v>61.0502</v>
+        <v>61.181</v>
       </c>
       <c r="BM9">
-        <v>61.6585</v>
+        <v>61.579</v>
       </c>
       <c r="BN9">
-        <v>62.8123</v>
+        <v>62.6966</v>
       </c>
       <c r="BO9" s="2">
-        <v>66.69880000000001</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>5.04812</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>2.24789</v>
+        <v>-49.9069</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>5.04746</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>2.2496</v>
       </c>
       <c r="BR9">
-        <v>82.0107</v>
+        <v>82.0215</v>
       </c>
       <c r="BS9">
-        <v>184.173</v>
+        <v>184.033</v>
       </c>
       <c r="BT9" s="4" t="s">
         <v>92</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
@@ -3010,160 +3010,160 @@
         <v>128</v>
       </c>
       <c r="T10">
-        <v>130.785</v>
+        <v>130.576</v>
       </c>
       <c r="U10">
-        <v>132.772</v>
+        <v>132.694</v>
       </c>
       <c r="V10">
-        <v>131.779</v>
+        <v>131.635</v>
       </c>
       <c r="W10" s="2">
-        <v>66.7394</v>
-      </c>
-      <c r="X10" s="3">
-        <v>21.6822</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>20.432</v>
+        <v>-49.7838</v>
+      </c>
+      <c r="X10" s="2">
+        <v>21.5425</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>20.5527</v>
       </c>
       <c r="Z10">
-        <v>19.094</v>
+        <v>19.2178</v>
       </c>
       <c r="AA10">
-        <v>20.2623</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>3053.37</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>3053.67</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>3053.52</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0.168215</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>15.3789</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>14.5825</v>
+        <v>20.1434</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>8053.34</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>9053.630000000001</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>8553.49</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>9.91215</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>15.3784</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>14.5824</v>
       </c>
       <c r="AH10">
-        <v>35.8933</v>
+        <v>35.8944</v>
       </c>
       <c r="AI10">
-        <v>37.8537</v>
+        <v>37.8539</v>
       </c>
       <c r="AJ10">
-        <v>53.3703</v>
+        <v>-946.664</v>
       </c>
       <c r="AK10">
-        <v>53.6658</v>
+        <v>53.6339</v>
       </c>
       <c r="AL10">
-        <v>53.5181</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>25.0072</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>15.3789</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>14.5825</v>
+        <v>-446.515</v>
+      </c>
+      <c r="AM10">
+        <v>50.0318</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>15.3784</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>14.5824</v>
       </c>
       <c r="AP10">
-        <v>35.8933</v>
+        <v>35.8944</v>
       </c>
       <c r="AQ10">
-        <v>37.8537</v>
+        <v>37.8539</v>
       </c>
       <c r="AR10">
-        <v>109.747</v>
+        <v>109.517</v>
       </c>
       <c r="AS10">
-        <v>111.329</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>66.7234</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>52.4724</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>51.4057</v>
+        <v>111.263</v>
+      </c>
+      <c r="AT10">
+        <v>49.8293</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>52.3296</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>51.5373</v>
       </c>
       <c r="AW10">
-        <v>7.88987</v>
+        <v>7.91139</v>
       </c>
       <c r="AX10">
-        <v>8.05359</v>
+        <v>8.03302</v>
       </c>
       <c r="AY10">
-        <v>28.4739</v>
+        <v>28.4768</v>
       </c>
       <c r="AZ10">
-        <v>28.9395</v>
+        <v>28.9392</v>
       </c>
       <c r="BA10" s="2">
-        <v>66.68259999999999</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>2.79523</v>
-      </c>
-      <c r="BC10" s="3">
-        <v>2.64089</v>
+        <v>-49.9524</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>2.78837</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>2.63699</v>
       </c>
       <c r="BD10">
-        <v>148.109</v>
+        <v>148.474</v>
       </c>
       <c r="BE10">
-        <v>156.765</v>
+        <v>156.997</v>
       </c>
       <c r="BF10">
-        <v>41.5228</v>
+        <v>41.4536</v>
       </c>
       <c r="BG10">
-        <v>39.969</v>
+        <v>39.8971</v>
       </c>
       <c r="BH10" s="2">
-        <v>66.6121</v>
-      </c>
-      <c r="BI10" s="3">
-        <v>6.68981</v>
-      </c>
-      <c r="BJ10" s="3">
-        <v>5.87802</v>
+        <v>-50.1638</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>6.69109</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>5.86627</v>
       </c>
       <c r="BK10">
-        <v>61.8852</v>
+        <v>61.8734</v>
       </c>
       <c r="BL10">
-        <v>70.4319</v>
+        <v>70.5729</v>
       </c>
       <c r="BM10">
-        <v>58.60299999999999</v>
+        <v>58.52530000000001</v>
       </c>
       <c r="BN10">
-        <v>61.2104</v>
+        <v>61.0686</v>
       </c>
       <c r="BO10" s="2">
-        <v>66.74509999999999</v>
-      </c>
-      <c r="BP10" s="3">
-        <v>4.79746</v>
-      </c>
-      <c r="BQ10" s="3">
-        <v>2.08689</v>
+        <v>-49.773</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>4.79322</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>2.08919</v>
       </c>
       <c r="BR10">
-        <v>86.29559999999999</v>
+        <v>86.372</v>
       </c>
       <c r="BS10">
-        <v>198.381</v>
+        <v>198.163</v>
       </c>
       <c r="BT10" s="4" t="s">
         <v>92</v>
@@ -3425,184 +3425,184 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T12" s="1">
-        <v>120.745</v>
+        <v>129.622</v>
       </c>
       <c r="U12" s="1">
-        <v>122.084</v>
+        <v>129.957</v>
       </c>
       <c r="V12" s="1">
-        <v>121.414</v>
+        <v>129.789</v>
       </c>
       <c r="W12" s="2">
-        <v>66.6739</v>
-      </c>
-      <c r="X12" s="3">
-        <v>20.3203</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>19.2525</v>
+        <v>-49.9755</v>
+      </c>
+      <c r="X12" s="2">
+        <v>21.5425</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>20.5527</v>
       </c>
       <c r="Z12" s="1">
-        <v>10.3584</v>
+        <v>10.5959</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.7931</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>3049.02</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>3049.49</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>3049.26</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0.13485</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>13.4214</v>
+        <v>11.5998</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>8053.34</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>9053.630000000001</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>8553.49</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0.404894</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>15.3784</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>14.5824</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.5013</v>
+        <v>21.5003</v>
       </c>
       <c r="AI12" s="1">
-        <v>22.154</v>
+        <v>22.1549</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49.0237</v>
+        <v>-946.664</v>
       </c>
       <c r="AK12" s="1">
-        <v>49.4948</v>
+        <v>53.6339</v>
       </c>
       <c r="AL12" s="1">
-        <v>49.2593</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>24.9817</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>13.4214</v>
+        <v>-446.515</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>49.9329</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>15.3784</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>14.5824</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.5013</v>
+        <v>21.5003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>22.154</v>
+        <v>22.1549</v>
       </c>
       <c r="AR12" s="1">
-        <v>99.2927</v>
+        <v>108.859</v>
       </c>
       <c r="AS12" s="1">
-        <v>100.336</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>66.63679999999999</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>51.3256</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>50.3576</v>
+        <v>108.985</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>49.8293</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>52.3296</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>51.5373</v>
       </c>
       <c r="AW12" s="1">
-        <v>6.33997</v>
+        <v>6.37399</v>
       </c>
       <c r="AX12" s="1">
-        <v>6.54198</v>
+        <v>6.50851</v>
       </c>
       <c r="AY12" s="1">
-        <v>26.8668</v>
+        <v>28.4768</v>
       </c>
       <c r="AZ12" s="1">
-        <v>27.349</v>
+        <v>28.9392</v>
       </c>
       <c r="BA12" s="2">
-        <v>66.6793</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>2.72664</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>2.55628</v>
+        <v>-49.9618</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>2.78837</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>2.63699</v>
       </c>
       <c r="BD12" s="1">
-        <v>103.981</v>
+        <v>104.043</v>
       </c>
       <c r="BE12" s="1">
-        <v>107.521</v>
+        <v>107.559</v>
       </c>
       <c r="BF12" s="1">
-        <v>38.5631</v>
+        <v>41.4536</v>
       </c>
       <c r="BG12" s="1">
-        <v>37.2685</v>
+        <v>39.8971</v>
       </c>
       <c r="BH12" s="2">
-        <v>66.51600000000001</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>6.25482</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>5.45565</v>
+        <v>-50.4521</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>6.69109</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>5.86627</v>
       </c>
       <c r="BK12" s="1">
-        <v>37.5942</v>
+        <v>37.5785</v>
       </c>
       <c r="BL12" s="1">
-        <v>39.8692</v>
+        <v>40.0455</v>
       </c>
       <c r="BM12" s="1">
-        <v>53.1426</v>
+        <v>57.6441</v>
       </c>
       <c r="BN12" s="1">
-        <v>54.9078</v>
+        <v>58.1418</v>
       </c>
       <c r="BO12" s="2">
-        <v>66.679</v>
-      </c>
-      <c r="BP12" s="3">
-        <v>4.16801</v>
-      </c>
-      <c r="BQ12" s="3">
-        <v>1.83899</v>
+        <v>-49.9653</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>4.506019999999999</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>2.0264</v>
       </c>
       <c r="BR12" s="1">
-        <v>57.798</v>
+        <v>57.891</v>
       </c>
       <c r="BS12" s="1">
-        <v>133.204</v>
+        <v>132.78</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
@@ -3610,181 +3610,181 @@
         <v>135</v>
       </c>
       <c r="T13" s="1">
-        <v>201.842</v>
+        <v>201.414</v>
       </c>
       <c r="U13" s="1">
-        <v>204.063</v>
+        <v>203.996</v>
       </c>
       <c r="V13" s="1">
-        <v>202.952</v>
+        <v>202.705</v>
       </c>
       <c r="W13" s="2">
-        <v>66.747</v>
+        <v>-49.7533</v>
       </c>
       <c r="X13" s="1">
-        <v>39.9676</v>
+        <v>39.0719</v>
       </c>
       <c r="Y13" s="1">
-        <v>35.1052</v>
+        <v>35.6902</v>
       </c>
       <c r="Z13" s="1">
-        <v>22.7358</v>
+        <v>19.8842</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.9969</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>3084.48</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>3083.78</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>3084.13</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>18.047</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>25.6729</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>24.9165</v>
+        <v>20.296</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>8084.41</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>9083.700000000001</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>8584.060000000001</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>17.8485</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>25.6741</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24.9155</v>
       </c>
       <c r="AH13" s="1">
-        <v>43.7585</v>
+        <v>38.9468</v>
       </c>
       <c r="AI13" s="1">
-        <v>46.0756</v>
+        <v>39.755</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84.48</v>
+        <v>-915.59</v>
       </c>
       <c r="AK13" s="1">
-        <v>83.7773</v>
+        <v>83.702</v>
       </c>
       <c r="AL13" s="1">
-        <v>84.12869999999999</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>25.0135</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>25.6729</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>24.9165</v>
+        <v>-415.944</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>50.0537</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>25.6741</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>24.9155</v>
       </c>
       <c r="AP13" s="1">
-        <v>43.7585</v>
+        <v>38.9468</v>
       </c>
       <c r="AQ13" s="1">
-        <v>46.0756</v>
+        <v>39.755</v>
       </c>
       <c r="AR13" s="1">
-        <v>186.812</v>
+        <v>186.138</v>
       </c>
       <c r="AS13" s="1">
-        <v>186.68</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>66.7234</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>65.3</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>63.2836</v>
+        <v>186.8</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>50.0837</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>64.95150000000001</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>63.60900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>9.00136</v>
+        <v>8.55068</v>
       </c>
       <c r="AX13" s="1">
-        <v>9.174379999999999</v>
+        <v>8.61247</v>
       </c>
       <c r="AY13" s="1">
-        <v>40.30390000000001</v>
+        <v>40.30370000000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>40.7133</v>
+        <v>40.7165</v>
       </c>
       <c r="BA13" s="2">
-        <v>66.6832</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>3.98149</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>3.85039</v>
+        <v>-49.9524</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>3.97914</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>3.84905</v>
       </c>
       <c r="BD13" s="1">
-        <v>170.1</v>
+        <v>148.474</v>
       </c>
       <c r="BE13" s="1">
-        <v>181.436</v>
+        <v>156.997</v>
       </c>
       <c r="BF13" s="1">
-        <v>64.3206</v>
+        <v>64.17449999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>60.054</v>
+        <v>59.9019</v>
       </c>
       <c r="BH13" s="2">
-        <v>66.6212</v>
-      </c>
-      <c r="BI13" s="3">
-        <v>11.0123</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>10.3839</v>
+        <v>-50.1591</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>11.0169</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>10.3383</v>
       </c>
       <c r="BK13" s="1">
-        <v>74.15089999999999</v>
+        <v>63.7628</v>
       </c>
       <c r="BL13" s="1">
-        <v>85.0127</v>
+        <v>73.38549999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>93.1165</v>
+        <v>92.9776</v>
       </c>
       <c r="BN13" s="1">
-        <v>97.9923</v>
+        <v>97.83070000000001</v>
       </c>
       <c r="BO13" s="2">
-        <v>66.8207</v>
-      </c>
-      <c r="BP13" s="3">
-        <v>7.162870000000001</v>
-      </c>
-      <c r="BQ13" s="3">
-        <v>3.10802</v>
+        <v>-49.5468</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>7.15137</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>3.11795</v>
       </c>
       <c r="BR13" s="1">
-        <v>110.844</v>
+        <v>102.529</v>
       </c>
       <c r="BS13" s="1">
-        <v>251.225</v>
+        <v>227.99</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
@@ -4076,181 +4076,181 @@
         <v>140</v>
       </c>
       <c r="T18" s="1">
-        <v>156.6053333333333</v>
+        <v>160.78325</v>
       </c>
       <c r="U18" s="1">
-        <v>157.73</v>
+        <v>162.108375</v>
       </c>
       <c r="V18" s="1">
-        <v>157.1676666666667</v>
+        <v>161.44575</v>
       </c>
       <c r="W18" s="1">
-        <v>66.7100111111111</v>
+        <v>-49.8759625</v>
       </c>
       <c r="X18" s="1">
-        <v>28.11207777777778</v>
+        <v>28.750725</v>
       </c>
       <c r="Y18" s="1">
-        <v>25.90235555555555</v>
+        <v>26.97745</v>
       </c>
       <c r="Z18" s="1">
-        <v>16.41552222222222</v>
+        <v>15.7763125</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.60252222222222</v>
+        <v>16.6683875</v>
       </c>
       <c r="AB18" s="1">
-        <v>3065.331111111111</v>
+        <v>8067.33375</v>
       </c>
       <c r="AC18" s="1">
-        <v>3065.422222222222</v>
+        <v>9067.38125</v>
       </c>
       <c r="AD18" s="1">
-        <v>3065.377777777778</v>
+        <v>8567.357500000002</v>
       </c>
       <c r="AE18" s="1">
-        <v>2.550943333333334</v>
+        <v>4.716409875</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.47466666666666</v>
+        <v>20.1430125</v>
       </c>
       <c r="AG18" s="1">
-        <v>18.61448888888889</v>
+        <v>19.2633</v>
       </c>
       <c r="AH18" s="1">
-        <v>31.54087777777778</v>
+        <v>30.0129125</v>
       </c>
       <c r="AI18" s="1">
-        <v>32.95587777777777</v>
+        <v>31.3163875</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65.33210000000001</v>
+        <v>-932.6673749999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>65.42111111111109</v>
+        <v>67.38160000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>65.37662222222222</v>
+        <v>-432.642875</v>
       </c>
       <c r="AM18" s="1">
-        <v>25.0021</v>
+        <v>50.0067</v>
       </c>
       <c r="AN18" s="1">
-        <v>19.47466666666666</v>
+        <v>20.1430125</v>
       </c>
       <c r="AO18" s="1">
-        <v>18.61448888888889</v>
+        <v>19.2633</v>
       </c>
       <c r="AP18" s="1">
-        <v>31.54087777777778</v>
+        <v>30.0129125</v>
       </c>
       <c r="AQ18" s="1">
-        <v>32.95587777777777</v>
+        <v>31.3163875</v>
       </c>
       <c r="AR18" s="1">
-        <v>138.3386333333333</v>
+        <v>142.7655</v>
       </c>
       <c r="AS18" s="1">
-        <v>138.4341111111111</v>
+        <v>143.23825</v>
       </c>
       <c r="AT18" s="1">
-        <v>66.67645555555555</v>
+        <v>49.97455</v>
       </c>
       <c r="AU18" s="1">
-        <v>57.65541111111112</v>
+        <v>58.21266250000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>56.14461111111112</v>
+        <v>57.08137500000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>7.675152222222222</v>
+        <v>7.53853625</v>
       </c>
       <c r="AX18" s="1">
-        <v>7.872623333333333</v>
+        <v>7.681937500000001</v>
       </c>
       <c r="AY18" s="1">
-        <v>33.70705555555556</v>
+        <v>34.564525</v>
       </c>
       <c r="AZ18" s="1">
-        <v>34.13858888888889</v>
+        <v>34.9892625</v>
       </c>
       <c r="BA18" s="1">
-        <v>66.68107777777777</v>
+        <v>-49.957525</v>
       </c>
       <c r="BB18" s="1">
-        <v>3.423781111111111</v>
+        <v>3.50475375</v>
       </c>
       <c r="BC18" s="1">
-        <v>3.268266666666666</v>
+        <v>3.3520175</v>
       </c>
       <c r="BD18" s="1">
-        <v>130.9183333333333</v>
+        <v>126.242</v>
       </c>
       <c r="BE18" s="1">
-        <v>137.4725555555556</v>
+        <v>132.170625</v>
       </c>
       <c r="BF18" s="1">
-        <v>50.62773333333334</v>
+        <v>52.03399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>48.13828888888889</v>
+        <v>49.3979375</v>
       </c>
       <c r="BH18" s="1">
-        <v>66.57878888888889</v>
+        <v>-50.27918749999999</v>
       </c>
       <c r="BI18" s="1">
-        <v>8.431902222222222</v>
+        <v>8.70745625</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.649797777777778</v>
+        <v>7.904333749999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>54.18019999999999</v>
+        <v>51.6658875</v>
       </c>
       <c r="BL18" s="1">
-        <v>60.43052222222223</v>
+        <v>57.4957</v>
       </c>
       <c r="BM18" s="1">
-        <v>70.57081111111111</v>
+        <v>72.63878749999999</v>
       </c>
       <c r="BN18" s="1">
-        <v>72.9783888888889</v>
+        <v>75.04574999999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>66.73884444444444</v>
+        <v>-49.786025</v>
       </c>
       <c r="BP18" s="1">
-        <v>5.503344444444445</v>
+        <v>5.66434375</v>
       </c>
       <c r="BQ18" s="1">
-        <v>2.433602222222222</v>
+        <v>2.51074375</v>
       </c>
       <c r="BR18" s="1">
-        <v>82.70926666666668</v>
+        <v>79.26468749999999</v>
       </c>
       <c r="BS18" s="1">
-        <v>186.7601111111111</v>
+        <v>178.51025</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
@@ -4258,181 +4258,181 @@
         <v>141</v>
       </c>
       <c r="T19" s="1">
-        <v>28.35154830183196</v>
+        <v>26.80285206256043</v>
       </c>
       <c r="U19" s="1">
-        <v>28.50411160205176</v>
+        <v>27.08083256169158</v>
       </c>
       <c r="V19" s="1">
-        <v>28.42613689312473</v>
+        <v>26.94006609471291</v>
       </c>
       <c r="W19" s="1">
-        <v>0.02323309155514857</v>
+        <v>0.07310950583713341</v>
       </c>
       <c r="X19" s="1">
-        <v>6.242461843745405</v>
+        <v>5.711171394895708</v>
       </c>
       <c r="Y19" s="1">
-        <v>4.925726736028368</v>
+        <v>4.723773524154181</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.68541883607331</v>
+        <v>3.073829310663451</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.528139006702724</v>
+        <v>2.8905576319447</v>
       </c>
       <c r="AB19" s="1">
-        <v>12.5344843837084</v>
+        <v>11.78134111370591</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.17444845000079</v>
+        <v>11.43178511596092</v>
       </c>
       <c r="AD19" s="1">
-        <v>12.35305430317883</v>
+        <v>11.60597017702533</v>
       </c>
       <c r="AE19" s="1">
-        <v>5.575221644070086</v>
+        <v>5.887717773297147</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.06232851590207</v>
+        <v>3.814763817865236</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.821744354623785</v>
+        <v>3.554988149066042</v>
       </c>
       <c r="AH19" s="1">
-        <v>7.000559873606583</v>
+        <v>5.842937553242697</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.244630226707806</v>
+        <v>5.90240669397609</v>
       </c>
       <c r="AJ19" s="1">
-        <v>12.53359402955823</v>
+        <v>11.78269044973918</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.17262927851246</v>
+        <v>11.43133829359012</v>
       </c>
       <c r="AL19" s="1">
-        <v>12.35293184729644</v>
+        <v>11.60679917588716</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.009841183307351398</v>
+        <v>0.03735465165143471</v>
       </c>
       <c r="AN19" s="1">
-        <v>4.06232851590207</v>
+        <v>3.814763817865236</v>
       </c>
       <c r="AO19" s="1">
-        <v>3.821744354623785</v>
+        <v>3.554988149066042</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.000559873606583</v>
+        <v>5.842937553242697</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.244630226707806</v>
+        <v>5.90240669397609</v>
       </c>
       <c r="AR19" s="1">
-        <v>31.14053064466164</v>
+        <v>29.40398842419171</v>
       </c>
       <c r="AS19" s="1">
-        <v>30.55977308468855</v>
+        <v>29.14559268461528</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.02504747097950404</v>
+        <v>0.07059095196978095</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.625847525575885</v>
+        <v>4.22309749293617</v>
       </c>
       <c r="AV19" s="1">
-        <v>4.100362382479665</v>
+        <v>3.831108684424784</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.7892499629926824</v>
+        <v>0.6705131633670122</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.7636884717823972</v>
+        <v>0.6489072178622688</v>
       </c>
       <c r="AY19" s="1">
-        <v>4.73872184152626</v>
+        <v>4.32182011158204</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.711232754089939</v>
+        <v>4.299842271798322</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.001163116290905384</v>
+        <v>0.002778376324402396</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.4298280437943745</v>
+        <v>0.3725812710314859</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.4367412194627132</v>
+        <v>0.3764481329396522</v>
       </c>
       <c r="BD19" s="1">
-        <v>20.043576166831</v>
+        <v>15.38675581466086</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.20801682131483</v>
+        <v>16.79492785737335</v>
       </c>
       <c r="BF19" s="1">
-        <v>9.06718776737798</v>
+        <v>8.457411495546376</v>
       </c>
       <c r="BG19" s="1">
-        <v>8.044194126676352</v>
+        <v>7.465736240977427</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.03663809324382375</v>
+        <v>0.1064504513553133</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.582160821975776</v>
+        <v>1.467972010929853</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.661687377702943</v>
+        <v>1.552121365172014</v>
       </c>
       <c r="BK19" s="1">
-        <v>11.00550238209152</v>
+        <v>8.956312716798902</v>
       </c>
       <c r="BL19" s="1">
-        <v>13.83112899141946</v>
+        <v>11.43089758986581</v>
       </c>
       <c r="BM19" s="1">
-        <v>13.58886527683967</v>
+        <v>12.81796218656045</v>
       </c>
       <c r="BN19" s="1">
-        <v>14.56611984842791</v>
+        <v>13.83019233208635</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.03876387525378869</v>
+        <v>0.1190708271366253</v>
       </c>
       <c r="BP19" s="1">
-        <v>1.000928203342734</v>
+        <v>0.9329799579162662</v>
       </c>
       <c r="BQ19" s="1">
-        <v>0.4315145207233028</v>
+        <v>0.4005625877106317</v>
       </c>
       <c r="BR19" s="1">
-        <v>16.49884814383517</v>
+        <v>13.94304303402215</v>
       </c>
       <c r="BS19" s="1">
-        <v>36.6433703339649</v>
+        <v>30.42390099802292</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
@@ -4440,181 +4440,181 @@
         <v>142</v>
       </c>
       <c r="T20" s="1">
-        <v>18.1038204117135</v>
+        <v>16.67017681416468</v>
       </c>
       <c r="U20" s="1">
-        <v>18.07145856974055</v>
+        <v>16.70538771466409</v>
       </c>
       <c r="V20" s="1">
-        <v>18.08650436569315</v>
+        <v>16.68676078169473</v>
       </c>
       <c r="W20" s="1">
-        <v>0.03482699398213548</v>
+        <v>0.1465826465747571</v>
       </c>
       <c r="X20" s="1">
-        <v>22.20562241286906</v>
+        <v>19.86444305281244</v>
       </c>
       <c r="Y20" s="1">
-        <v>19.01652042982591</v>
+        <v>17.51008165765919</v>
       </c>
       <c r="Z20" s="1">
-        <v>22.45081689258865</v>
+        <v>19.4838262151783</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.04337197909422</v>
+        <v>17.34155527608594</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.4089112702465915</v>
+        <v>0.14603760646082</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.3971540482007447</v>
+        <v>0.1260759286586843</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.4029863592256509</v>
+        <v>0.1354673267343557</v>
       </c>
       <c r="AE20" s="1">
-        <v>218.5552917314282</v>
+        <v>124.8347350917449</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.85955351859888</v>
+        <v>18.93839770920678</v>
       </c>
       <c r="AG20" s="1">
-        <v>20.53101955920481</v>
+        <v>18.45472037016524</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.19519673145828</v>
+        <v>19.46807912508557</v>
       </c>
       <c r="AI20" s="1">
-        <v>21.98281676961698</v>
+        <v>18.84766144874178</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19.18443464936568</v>
+        <v>1.263332541222339</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.60657679420713</v>
+        <v>16.96507398694914</v>
       </c>
       <c r="AL20" s="1">
-        <v>18.89502918230845</v>
+        <v>2.682766745179188</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.03936142686954855</v>
+        <v>0.07469929359752736</v>
       </c>
       <c r="AN20" s="1">
-        <v>20.85955351859888</v>
+        <v>18.93839770920678</v>
       </c>
       <c r="AO20" s="1">
-        <v>20.53101955920481</v>
+        <v>18.45472037016524</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.19519673145828</v>
+        <v>19.46807912508557</v>
       </c>
       <c r="AQ20" s="1">
-        <v>21.98281676961698</v>
+        <v>18.84766144874178</v>
       </c>
       <c r="AR20" s="1">
-        <v>22.51036452675305</v>
+        <v>20.59600423365008</v>
       </c>
       <c r="AS20" s="1">
-        <v>22.07532004894401</v>
+        <v>20.34763248267505</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.03756569057369016</v>
+        <v>0.1412538021248435</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.0232669170655</v>
+        <v>7.254602884614958</v>
       </c>
       <c r="AV20" s="1">
-        <v>7.303216286181019</v>
+        <v>6.711661526066573</v>
       </c>
       <c r="AW20" s="1">
-        <v>10.28318318830903</v>
+        <v>8.894474220602337</v>
       </c>
       <c r="AX20" s="1">
-        <v>9.700559006155896</v>
+        <v>8.447181689024008</v>
       </c>
       <c r="AY20" s="1">
-        <v>14.05854579530376</v>
+        <v>12.50362940495216</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.80031485608155</v>
+        <v>12.28903373370137</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.001744297377408327</v>
+        <v>0.005561477123621308</v>
       </c>
       <c r="BB20" s="1">
-        <v>12.55419169173708</v>
+        <v>10.63074034891855</v>
       </c>
       <c r="BC20" s="1">
-        <v>13.36308398323412</v>
+        <v>11.23049426023737</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.309984214203</v>
+        <v>12.18830168617486</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.15450933574891</v>
+        <v>12.70700494710784</v>
       </c>
       <c r="BF20" s="1">
-        <v>17.90952738823908</v>
+        <v>16.25362550552788</v>
       </c>
       <c r="BG20" s="1">
-        <v>16.71059423246987</v>
+        <v>15.11345740088324</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.0550296781531545</v>
+        <v>0.2117187183172228</v>
       </c>
       <c r="BI20" s="1">
-        <v>18.76398445188325</v>
+        <v>16.85879284124859</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.72197783489192</v>
+        <v>19.63633386775975</v>
       </c>
       <c r="BK20" s="1">
-        <v>20.31277548272528</v>
+        <v>17.33506023059974</v>
       </c>
       <c r="BL20" s="1">
-        <v>22.88765425616877</v>
+        <v>19.88130867154555</v>
       </c>
       <c r="BM20" s="1">
-        <v>19.2556455890021</v>
+        <v>17.64616760234393</v>
       </c>
       <c r="BN20" s="1">
-        <v>19.95949769541381</v>
+        <v>18.42901474378809</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.05808292843016932</v>
+        <v>0.2391651615822417</v>
       </c>
       <c r="BP20" s="1">
-        <v>18.18763505441057</v>
+        <v>16.47110414010919</v>
       </c>
       <c r="BQ20" s="1">
-        <v>17.73151408159339</v>
+        <v>15.9539414450651</v>
       </c>
       <c r="BR20" s="1">
-        <v>19.94800438786202</v>
+        <v>17.59048508709778</v>
       </c>
       <c r="BS20" s="1">
-        <v>19.62055500821815</v>
+        <v>17.04322356728699</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>
